--- a/用例的艺术.xlsx
+++ b/用例的艺术.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="491">
   <si>
     <t>集换及积分活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2100,6 +2100,10 @@
   </si>
   <si>
     <t>常规流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢谢谢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2394,6 +2398,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2421,6 +2439,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2430,31 +2451,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3378,270 +3382,270 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="48" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="48" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="38" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="48" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>169</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="48" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="38" t="s">
         <v>177</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="48" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="38" t="s">
         <v>190</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="48" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="38" t="s">
         <v>184</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="48" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="33"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="33"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3686,22 +3690,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
@@ -3718,7 +3722,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>364</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -3729,7 +3733,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="28" t="s">
         <v>337</v>
       </c>
@@ -3738,7 +3742,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="28" t="s">
         <v>338</v>
       </c>
@@ -3747,7 +3751,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="28" t="s">
         <v>340</v>
       </c>
@@ -3756,7 +3760,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="28" t="s">
         <v>342</v>
       </c>
@@ -3765,7 +3769,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="28" t="s">
         <v>344</v>
       </c>
@@ -3774,7 +3778,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>352</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3785,7 +3789,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="28" t="s">
         <v>347</v>
       </c>
@@ -3794,7 +3798,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="28" t="s">
         <v>348</v>
       </c>
@@ -3803,7 +3807,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="28" t="s">
         <v>350</v>
       </c>
@@ -3812,7 +3816,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="28" t="s">
         <v>357</v>
       </c>
@@ -3821,7 +3825,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="28" t="s">
         <v>353</v>
       </c>
@@ -3830,7 +3834,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="28" t="s">
         <v>355</v>
       </c>
@@ -3839,7 +3843,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="28" t="s">
         <v>358</v>
       </c>
@@ -3848,7 +3852,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="28" t="s">
         <v>359</v>
       </c>
@@ -3856,8 +3860,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+    <row r="20" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="39"/>
       <c r="C20" s="28" t="s">
         <v>361</v>
       </c>
@@ -3866,7 +3870,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="28" t="s">
         <v>362</v>
       </c>
@@ -3875,7 +3879,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="33"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="28" t="s">
         <v>365</v>
       </c>
@@ -3884,7 +3888,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="28" t="s">
         <v>366</v>
       </c>
@@ -3893,7 +3897,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="28" t="s">
         <v>368</v>
       </c>
@@ -3902,7 +3906,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="28" t="s">
         <v>369</v>
       </c>
@@ -3911,169 +3915,169 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="36" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="36" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="36" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="36" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="36" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="36" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="36" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="36" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="36" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="41" t="s">
         <v>397</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="45" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="2:4" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="40"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="47"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="47"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="47"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="47"/>
+      <c r="D45" s="35"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="47"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="47"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="47"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="47"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="47"/>
+      <c r="D50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>257</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4150,7 +4154,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10" t="s">
         <v>253</v>
       </c>
@@ -4159,7 +4163,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="10" t="s">
         <v>254</v>
       </c>
@@ -4168,7 +4172,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
         <v>256</v>
       </c>
@@ -4177,7 +4181,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="10" t="s">
         <v>258</v>
       </c>
@@ -4186,7 +4190,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>259</v>
       </c>
@@ -4245,7 +4249,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4256,7 +4260,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="10" t="s">
         <v>94</v>
       </c>
@@ -4265,7 +4269,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -4276,7 +4280,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
         <v>98</v>
       </c>
@@ -4285,7 +4289,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="10" t="s">
         <v>100</v>
       </c>
@@ -4294,7 +4298,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>102</v>
       </c>
@@ -4303,7 +4307,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -4314,7 +4318,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10" t="s">
         <v>107</v>
       </c>
@@ -4323,7 +4327,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="10" t="s">
         <v>109</v>
       </c>
@@ -4332,7 +4336,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="38" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -4343,7 +4347,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="10" t="s">
         <v>113</v>
       </c>
@@ -4352,7 +4356,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>115</v>
       </c>
@@ -4361,7 +4365,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="10" t="s">
         <v>116</v>
       </c>
@@ -4370,7 +4374,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="10" t="s">
         <v>117</v>
       </c>
@@ -4379,7 +4383,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="10" t="s">
         <v>125</v>
       </c>
@@ -4388,7 +4392,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="10" t="s">
         <v>126</v>
       </c>
@@ -4397,10 +4401,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="46" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -4408,21 +4412,21 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="33"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="38" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -4431,35 +4435,35 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="10" t="s">
         <v>140</v>
       </c>
@@ -4468,7 +4472,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="38" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -4477,7 +4481,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="10" t="s">
         <v>144</v>
       </c>
@@ -4486,7 +4490,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="10" t="s">
         <v>146</v>
       </c>
@@ -4495,7 +4499,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="10" t="s">
         <v>148</v>
       </c>
@@ -4504,7 +4508,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="10" t="s">
         <v>150</v>
       </c>
@@ -4547,7 +4551,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4567,176 +4571,176 @@
       <c r="B4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4759,7 +4763,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4770,7 +4774,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44"/>
+      <c r="A1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
@@ -4787,7 +4791,12 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>278</v>
       </c>
@@ -4887,7 +4896,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4898,7 +4907,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10" t="s">
         <v>54</v>
       </c>
@@ -4907,7 +4916,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="10" t="s">
         <v>55</v>
       </c>
@@ -4916,7 +4925,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
@@ -4925,7 +4934,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +4943,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="13" t="s">
         <v>62</v>
       </c>
@@ -4943,7 +4952,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="41" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4954,7 +4963,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="13" t="s">
         <v>67</v>
       </c>
@@ -4963,7 +4972,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="13" t="s">
         <v>69</v>
       </c>
@@ -4972,7 +4981,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
@@ -4981,7 +4990,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="13" t="s">
         <v>73</v>
       </c>
@@ -4990,7 +4999,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
@@ -4999,7 +5008,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="13" t="s">
         <v>78</v>
       </c>
@@ -5008,7 +5017,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="13" t="s">
         <v>79</v>
       </c>
@@ -5017,7 +5026,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="13" t="s">
         <v>81</v>
       </c>
@@ -5026,27 +5035,27 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5113,7 +5122,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -5121,67 +5130,67 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -5189,67 +5198,67 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="33"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5257,31 +5266,31 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="16" t="s">
         <v>29</v>
       </c>
@@ -5337,122 +5346,122 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="45" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="38" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5486,7 +5495,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5511,274 +5520,269 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>315</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="45" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="41" t="s">
         <v>322</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="45" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="2:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="39" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="2:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="2:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B34:B40"/>
     <mergeCell ref="D5:D24"/>
     <mergeCell ref="B5:B24"/>
@@ -5786,6 +5790,11 @@
     <mergeCell ref="D25:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5842,78 +5851,78 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="45" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5946,7 +5955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5974,10 +5983,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="41" t="s">
         <v>421</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -5985,29 +5994,29 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="27" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="27" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="27" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>427</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -6015,50 +6024,50 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="27" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="27" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="27" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="27" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="27" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>435</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -6066,43 +6075,43 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="27" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="27" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="27" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="27" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="27" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="47" t="s">
         <v>450</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -6110,57 +6119,57 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="27" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="27" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="27" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="27" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="27" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="27" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="27" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="53" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="47" t="s">
         <v>451</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -6168,238 +6177,238 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="27" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="27" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="27" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="49" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="36" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="49" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="36" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="49" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="36" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="49" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="36" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="49" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="36" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="49" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="36" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="36" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="49" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="36" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="49" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="36" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="49" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="36" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="49" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="36" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="36" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="49" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="36" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="49" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="36" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="49" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="36" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="49" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="49" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="36" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="49" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="36" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="49" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="36" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="49" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="36" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="49" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="36" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="49" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="36" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="35"/>
-      <c r="C56" s="35" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="36" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="49" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="36" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="49" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="36" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="49" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="36" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="49" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="36" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="49" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="36" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="49" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="36" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="27" t="s">
         <v>488</v>
       </c>
@@ -6473,7 +6482,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6484,7 +6493,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10" t="s">
         <v>208</v>
       </c>
@@ -6493,7 +6502,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="10" t="s">
         <v>209</v>
       </c>
@@ -6502,7 +6511,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="10" t="s">
         <v>229</v>
       </c>
@@ -6511,7 +6520,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="10" t="s">
         <v>210</v>
       </c>
@@ -6520,7 +6529,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="10" t="s">
         <v>212</v>
       </c>
@@ -6529,7 +6538,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
         <v>211</v>
       </c>
@@ -6538,7 +6547,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="10" t="s">
         <v>213</v>
       </c>
@@ -6547,7 +6556,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="41" t="s">
         <v>214</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -6558,7 +6567,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6567,7 +6576,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="10" t="s">
         <v>217</v>
       </c>
@@ -6576,7 +6585,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10" t="s">
         <v>218</v>
       </c>
@@ -6585,7 +6594,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="10" t="s">
         <v>219</v>
       </c>
@@ -6594,7 +6603,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10" t="s">
         <v>220</v>
       </c>
@@ -6603,7 +6612,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="10" t="s">
         <v>239</v>
       </c>
@@ -6612,7 +6621,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="10" t="s">
         <v>221</v>
       </c>
@@ -6621,7 +6630,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10" t="s">
         <v>222</v>
       </c>
@@ -6630,7 +6639,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="10" t="s">
         <v>223</v>
       </c>
@@ -6639,7 +6648,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="10" t="s">
         <v>224</v>
       </c>
@@ -6648,50 +6657,50 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="41" t="s">
         <v>242</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="45" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
